--- a/datalist.xlsx
+++ b/datalist.xlsx
@@ -182,13 +182,15 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
+      <selection pane="topLeft" activeCell="E8" activeCellId="0" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="29.12"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="11.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="10.51"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
